--- a/IT002-OOP/Điểm thực hành/it002m23cncl/it002m23cncl1.xlsx
+++ b/IT002-OOP/Điểm thực hành/it002m23cncl/it002m23cncl1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\haime\OneDrive\Máy tính\Quan trọng\Giảng dạy\IT002-OOP\Điểm thực hành\it002m23cncl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D27E477-7608-48A2-A740-E25AB53DDFB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5478567-1C52-4ACC-8E02-95007AD8F9A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -489,7 +489,7 @@
   <dimension ref="A1:L25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -911,11 +911,11 @@
         <v>800</v>
       </c>
       <c r="H15" s="1">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="I15" s="3">
         <f t="shared" si="0"/>
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
@@ -1155,11 +1155,11 @@
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="H25" s="1">
         <f>AVERAGE(H2:H24)</f>
-        <v>5.8478260869565215</v>
+        <v>5.8695652173913047</v>
       </c>
       <c r="I25" s="3">
         <f>AVERAGE(I2:I24)</f>
-        <v>6.1384570652173922</v>
+        <v>6.1493266304347829</v>
       </c>
     </row>
   </sheetData>
